--- a/legendre_out/DATA/p2/p2IntegrandSplinePoints2.000000.xlsx
+++ b/legendre_out/DATA/p2/p2IntegrandSplinePoints2.000000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>8.446876665543081e-13</v>
+        <v>8.294958740119371e-13</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>8.422495580330145e-13</v>
+        <v>8.496737816635792e-13</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>8.48239459770934e-13</v>
+        <v>8.730417233994494e-13</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>8.620266731240088e-13</v>
+        <v>8.99423053769058e-13</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>8.829804994482001e-13</v>
+        <v>9.286411273220042e-13</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>9.104702400994668e-13</v>
+        <v>9.605192986078597e-13</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>9.438651964338147e-13</v>
+        <v>9.948809221762429e-13</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>9.825346698071143e-13</v>
+        <v>1.031549352576635e-12</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>1.025847961575364e-12</v>
+        <v>1.070347944358649e-12</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>1.073174373094588e-12</v>
+        <v>1.111100052071913e-12</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>1.123883205720619e-12</v>
+        <v>1.15362903026589e-12</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>1.177343760809476e-12</v>
+        <v>1.197758233490204e-12</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>1.232925339717191e-12</v>
+        <v>1.243311016294487e-12</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>1.289997243799577e-12</v>
+        <v>1.29011073322819e-12</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>1.347928774412663e-12</v>
+        <v>1.337980738840944e-12</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>1.40608923291241e-12</v>
+        <v>1.38674438768232e-12</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>1.463847920654849e-12</v>
+        <v>1.436225034301955e-12</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>1.520574138995789e-12</v>
+        <v>1.48624603324929e-12</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>1.575654348888919e-12</v>
+        <v>1.536631052172379e-12</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>1.628820086324444e-12</v>
+        <v>1.587210055046869e-12</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>1.680122470087102e-12</v>
+        <v>1.637818837037813e-12</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>1.729624670695722e-12</v>
+        <v>1.688293413209496e-12</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>1.777389858669062e-12</v>
+        <v>1.738469798626132e-12</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>1.823481204525938e-12</v>
+        <v>1.788184008352003e-12</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>1.867961878784988e-12</v>
+        <v>1.837272057451191e-12</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>1.91089505196503e-12</v>
+        <v>1.88556996098798e-12</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>1.952343894584877e-12</v>
+        <v>1.932913734026645e-12</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>1.992371577163177e-12</v>
+        <v>1.979139391631278e-12</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>2.031041270218744e-12</v>
+        <v>2.024082948866157e-12</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>2.068416144270336e-12</v>
+        <v>2.067580420795498e-12</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>2.104559369836756e-12</v>
+        <v>2.109467822483571e-12</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>2.139534117436667e-12</v>
+        <v>2.149581168994479e-12</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>2.173403557588877e-12</v>
+        <v>2.187756475392496e-12</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>2.206230860812185e-12</v>
+        <v>2.223829756741882e-12</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>2.238054029000571e-12</v>
+        <v>2.257646987052071e-12</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>2.268742617001084e-12</v>
+        <v>2.289120792958683e-12</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>2.298097045371515e-12</v>
+        <v>2.318191156767901e-12</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>2.325917523883811e-12</v>
+        <v>2.344798144191366e-12</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>2.352004262310035e-12</v>
+        <v>2.368881820940839e-12</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>2.37615747042221e-12</v>
+        <v>2.390382252728035e-12</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>2.398177357992385e-12</v>
+        <v>2.409239505264697e-12</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>2.417864134792525e-12</v>
+        <v>2.425393644262495e-12</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>2.435018010594685e-12</v>
+        <v>2.438784735433173e-12</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>2.449439195170906e-12</v>
+        <v>2.449352844488462e-12</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>2.46092789829317e-12</v>
+        <v>2.457038037140053e-12</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>2.469284329733523e-12</v>
+        <v>2.461780379099679e-12</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>2.474308699263988e-12</v>
+        <v>2.46351993607906e-12</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>2.475801216656587e-12</v>
+        <v>2.46219677378991e-12</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>2.47356209168334e-12</v>
+        <v>2.457750957943952e-12</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>2.467421587367121e-12</v>
+        <v>2.450143797650706e-12</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>2.457596330787074e-12</v>
+        <v>2.439609706762518e-12</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>2.444570987252085e-12</v>
+        <v>2.426572564250501e-12</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>2.428835613808854e-12</v>
+        <v>2.411460060281811e-12</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>2.410880267504067e-12</v>
+        <v>2.394699885023594e-12</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>2.391195005384483e-12</v>
+        <v>2.376719728643064e-12</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>2.370269884496792e-12</v>
+        <v>2.357947281307371e-12</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>2.348594961887704e-12</v>
+        <v>2.338810233183682e-12</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>2.3266602946039e-12</v>
+        <v>2.319736274439144e-12</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>2.30495593969215e-12</v>
+        <v>2.301153095240975e-12</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>2.283971954199136e-12</v>
+        <v>2.28348838575632e-12</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>2.264198395171544e-12</v>
+        <v>2.267169836152327e-12</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>2.24611133915963e-12</v>
+        <v>2.252611658053247e-12</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>2.229843033118919e-12</v>
+        <v>2.239896578292256e-12</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>2.215169042416472e-12</v>
+        <v>2.228763448353661e-12</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>2.201848380438883e-12</v>
+        <v>2.218935162021009e-12</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>2.18964006057279e-12</v>
+        <v>2.210134613077878e-12</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>2.178303096204787e-12</v>
+        <v>2.202084695307814e-12</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>2.167596500721464e-12</v>
+        <v>2.194508302494361e-12</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>2.157279287509459e-12</v>
+        <v>2.187128328421095e-12</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>2.147110469955365e-12</v>
+        <v>2.179667666871563e-12</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>2.136849061445774e-12</v>
+        <v>2.171849211629311e-12</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>2.126254075367324e-12</v>
+        <v>2.163395856477913e-12</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>2.115084525106607e-12</v>
+        <v>2.154030495200918e-12</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>2.103099424050232e-12</v>
+        <v>2.14347602158188e-12</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>2.090057785584786e-12</v>
+        <v>2.131455329404339e-12</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>2.075718623096915e-12</v>
+        <v>2.117691312451883e-12</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>2.059840949973207e-12</v>
+        <v>2.101906864508052e-12</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>2.042183779600247e-12</v>
+        <v>2.083824879356379e-12</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>2.022506125364688e-12</v>
+        <v>2.063168250780466e-12</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>2.000567000653116e-12</v>
+        <v>2.039659872563847e-12</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>1.976125418852139e-12</v>
+        <v>2.013022638490078e-12</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>1.948940393348327e-12</v>
+        <v>1.982979442342674e-12</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>1.918770937528358e-12</v>
+        <v>1.949253177905269e-12</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>1.885376064778807e-12</v>
+        <v>1.911566738961383e-12</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>1.848514788486231e-12</v>
+        <v>1.869643019294514e-12</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>1.807946122037334e-12</v>
+        <v>1.823204912688328e-12</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>1.763429078818677e-12</v>
+        <v>1.771975312926328e-12</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>1.714932767685162e-12</v>
+        <v>1.715963482704193e-12</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>1.663518403726765e-12</v>
+        <v>1.656667271201667e-12</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>1.610600945542696e-12</v>
+        <v>1.596066694799542e-12</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>1.557595533220327e-12</v>
+        <v>1.536142017254612e-12</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>1.505917306847031e-12</v>
+        <v>1.478873502323676e-12</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>1.456981406510383e-12</v>
+        <v>1.426241413763753e-12</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>1.412202972297752e-12</v>
+        <v>1.380226015331639e-12</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>1.372997144296529e-12</v>
+        <v>1.342807570784159e-12</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>1.340779062594258e-12</v>
+        <v>1.315966343878283e-12</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>1.316963867278321e-12</v>
+        <v>1.301682598370827e-12</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>1.302966698436157e-12</v>
+        <v>1.30193659801866e-12</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>1.300202696155207e-12</v>
+        <v>1.318708606578685e-12</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>1.31008700052292e-12</v>
+        <v>1.35397888780773e-12</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>3.200448790036391e-13</v>
+        <v>3.219847869956007e-13</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>4.142489598552785e-13</v>
+        <v>4.179899917798838e-13</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>3.958901601669221e-13</v>
+        <v>4.054734892416348e-13</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>5.425402662426737e-13</v>
+        <v>5.46582723640899e-13</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>6.819454527173141e-13</v>
+        <v>6.788749361985725e-13</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>6.969916623970473e-13</v>
+        <v>6.942479391824647e-13</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>1.143194148773342e-12</v>
+        <v>1.147479750157957e-12</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>3.025425605555958e-12</v>
+        <v>3.036191922685634e-12</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>6.110769286884728e-12</v>
+        <v>6.12725529831508e-12</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>7.600628294384299e-12</v>
+        <v>7.629018948902851e-12</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>8.030854458059181e-12</v>
+        <v>8.047993277079902e-12</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>8.066501318794948e-12</v>
+        <v>8.05254063542527e-12</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>7.79761571786239e-12</v>
+        <v>7.777235597468126e-12</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>7.402771810053271e-12</v>
+        <v>7.400300104172921e-12</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>7.099423825902693e-12</v>
+        <v>7.111993352928608e-12</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>6.910343920018883e-12</v>
+        <v>6.914906230968539e-12</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>6.829816578987577e-12</v>
+        <v>6.809649618695456e-12</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>6.955143310632553e-12</v>
+        <v>6.961358894255825e-12</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>6.800933190507102e-12</v>
+        <v>6.818153743171024e-12</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>6.627421640996471e-12</v>
+        <v>6.618455337871631e-12</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>6.706026377857147e-12</v>
+        <v>6.689420070884379e-12</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>6.670458689430917e-12</v>
+        <v>6.657354537443415e-12</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>6.554172689016235e-12</v>
+        <v>6.547884901321811e-12</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>6.440833983451137e-12</v>
+        <v>6.439593847330044e-12</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>6.319045077711667e-12</v>
+        <v>6.32075454909313e-12</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>6.167110039372711e-12</v>
+        <v>6.169856711892896e-12</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>5.963932849005143e-12</v>
+        <v>5.966029073704228e-12</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>5.69453854640271e-12</v>
+        <v>5.694920579574994e-12</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>5.347530674426334e-12</v>
+        <v>5.345992028050887e-12</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>4.912126345018477e-12</v>
+        <v>4.909316478533159e-12</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>4.399643363400729e-12</v>
+        <v>4.396902758216936e-12</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>3.850107802405587e-12</v>
+        <v>3.849253727680098e-12</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>3.305464224474635e-12</v>
+        <v>3.308776420462361e-12</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>2.80272637842444e-12</v>
+        <v>2.812508307246938e-12</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>2.346389879905973e-12</v>
+        <v>2.362075226217868e-12</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>1.927832218551022e-12</v>
+        <v>1.94482915625295e-12</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>1.546217233686563e-12</v>
+        <v>1.558357188344465e-12</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>1.216854819364911e-12</v>
+        <v>1.221452942257689e-12</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>9.562983251969677e-13</v>
+        <v>9.54657441372189e-13</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>7.662334894628323e-13</v>
+        <v>7.612436274339072e-13</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>6.34710637926588e-13</v>
+        <v>6.286475056967969e-13</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>5.492754413930538e-13</v>
+        <v>5.437189467063078e-13</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>4.974735706671506e-13</v>
+        <v>4.933078210079888e-13</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>4.668506965536797e-13</v>
+        <v>4.642639991472713e-13</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>4.454347202682749e-13</v>
+        <v>4.439519165726839e-13</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>4.278782634595106e-13</v>
+        <v>4.268049296284006e-13</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>4.13647414622339e-13</v>
+        <v>4.123926138719602e-13</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>4.023166181584371e-13</v>
+        <v>4.004001662431138e-13</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>3.934603184694867e-13</v>
+        <v>3.905127836816167e-13</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>3.866529599571813e-13</v>
+        <v>3.824156631272372e-13</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>3.814689870232019e-13</v>
+        <v>3.757940015197301e-13</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>3.774828440692342e-13</v>
+        <v>3.703329957988546e-13</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>3.742689754969621e-13</v>
+        <v>3.657178429043683e-13</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>3.714579237257375e-13</v>
+        <v>3.616738791539024e-13</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>3.689581407806624e-13</v>
+        <v>3.5812529136182e-13</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>3.66763980811726e-13</v>
+        <v>3.550577312211751e-13</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>3.648698231173006e-13</v>
+        <v>3.524568684192509e-13</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>3.632700469957563e-13</v>
+        <v>3.503083726433268e-13</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>3.619590317454639e-13</v>
+        <v>3.485979135806831e-13</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>3.609311566647937e-13</v>
+        <v>3.473111609186003e-13</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>3.601808010521177e-13</v>
+        <v>3.464337843443599e-13</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>3.59702344205806e-13</v>
+        <v>3.459514535452419e-13</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>3.594901654242296e-13</v>
+        <v>3.458498382085271e-13</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>3.595386440057594e-13</v>
+        <v>3.46114608021496e-13</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>3.598421592487663e-13</v>
+        <v>3.467314326714294e-13</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>3.603950904516208e-13</v>
+        <v>3.476859818456076e-13</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>3.611918169126944e-13</v>
+        <v>3.489639252313119e-13</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>3.622267179303571e-13</v>
+        <v>3.505509325158218e-13</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>3.634941728029803e-13</v>
+        <v>3.524326733864187e-13</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>3.649885608289352e-13</v>
+        <v>3.545948175303839e-13</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>3.667042613065916e-13</v>
+        <v>3.570230346349963e-13</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>3.686356535343208e-13</v>
+        <v>3.597029943875373e-13</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>3.707771168104938e-13</v>
+        <v>3.626203664752875e-13</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>3.731230304334823e-13</v>
+        <v>3.65760820585529e-13</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>3.756677737016552e-13</v>
+        <v>3.691100264055396e-13</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>3.784057259133846e-13</v>
+        <v>3.726536536226016e-13</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>3.813312663670422e-13</v>
+        <v>3.763773719239968e-13</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>3.844387743609964e-13</v>
+        <v>3.802668509970027e-13</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>3.877226291936194e-13</v>
+        <v>3.843077605289016e-13</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>3.91177210163282e-13</v>
+        <v>3.884857702069741e-13</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>3.947968965683568e-13</v>
+        <v>3.927865497185027e-13</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>3.985760677072113e-13</v>
+        <v>3.971957687507643e-13</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>4.02509102878218e-13</v>
+        <v>4.016990969910413e-13</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>4.065903813797476e-13</v>
+        <v>4.062822041266144e-13</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>4.10814282510173e-13</v>
+        <v>4.109307598447663e-13</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>4.151751855678611e-13</v>
+        <v>4.156304338327733e-13</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>4.196674698511849e-13</v>
+        <v>4.203668957779184e-13</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>4.242855169218131e-13</v>
+        <v>4.251258186696066e-13</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>4.290317951811617e-13</v>
+        <v>4.299046741028172e-13</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>4.33935023196359e-13</v>
+        <v>4.347392323604061e-13</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>4.390292364839441e-13</v>
+        <v>4.396730210928668e-13</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>4.4434847056045e-13</v>
+        <v>4.447495679506861e-13</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>4.49926760942416e-13</v>
+        <v>4.500124005843576e-13</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>4.557981431463793e-13</v>
+        <v>4.555050466443725e-13</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>4.619966526888801e-13</v>
+        <v>4.61271033781225e-13</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>4.685563250864499e-13</v>
+        <v>4.673538896454008e-13</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>4.755111958556289e-13</v>
+        <v>4.737971418873944e-13</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>4.828953005129541e-13</v>
+        <v>4.806443181576966e-13</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>4.907426745749663e-13</v>
+        <v>4.879389461068023e-13</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>4.990873535581959e-13</v>
+        <v>4.957245533851962e-13</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>5.079633729791831e-13</v>
+        <v>5.040446676433729e-13</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>5.174047683544703e-13</v>
+        <v>5.129428165318277e-13</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>5.274455752005856e-13</v>
+        <v>5.22462527701044e-13</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>5.381198290340704e-13</v>
+        <v>5.32647328801517e-13</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>5.49461565371462e-13</v>
+        <v>5.43540747483738e-13</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>5.615048197293033e-13</v>
+        <v>5.55186311398204e-13</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>5.742836276241207e-13</v>
+        <v>5.676275481953953e-13</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>5.878320245724566e-13</v>
+        <v>5.809079855258087e-13</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>6.021840460908548e-13</v>
+        <v>5.950711510399421e-13</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>6.173737276958396e-13</v>
+        <v>6.101605723882738e-13</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>6.334351049039548e-13</v>
+        <v>6.262197772213014e-13</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>6.50402213231737e-13</v>
+        <v>6.432922931895164e-13</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>6.683090881957325e-13</v>
+        <v>6.614216479434183e-13</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>6.871897653124618e-13</v>
+        <v>6.806513691334822e-13</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>7.07112584885143e-13</v>
+        <v>7.010559376029425e-13</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>7.283291731983452e-13</v>
+        <v>7.228752130490262e-13</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>7.511521186035638e-13</v>
+        <v>7.464040612130135e-13</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>7.758940505067527e-13</v>
+        <v>7.719373848796077e-13</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>8.028675983138558e-13</v>
+        <v>7.997700868335005e-13</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>8.323853914308312e-13</v>
+        <v>8.301970698593992e-13</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>8.647600592635972e-13</v>
+        <v>8.635132367419699e-13</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>9.0030423121811e-13</v>
+        <v>9.000134902659172e-13</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>9.393305367003325e-13</v>
+        <v>9.399927332159533e-13</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>9.821516051161736e-13</v>
+        <v>9.837458683767347e-13</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>1.029080065871595e-12</v>
+        <v>1.031567798532972e-12</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>1.08042854837254e-12</v>
+        <v>1.083753426469356e-12</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>1.136509682024981e-12</v>
+        <v>1.140597654970609e-12</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>1.197636096234809e-12</v>
+        <v>1.202395386821369e-12</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>1.264120420407994e-12</v>
+        <v>1.269441524806357e-12</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>1.336275283950515e-12</v>
+        <v>1.342030971710297e-12</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>1.414413316268249e-12</v>
+        <v>1.420458630317817e-12</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>1.499021893585612e-12</v>
+        <v>1.505196776986056e-12</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>1.592444657492713e-12</v>
+        <v>1.598601856391808e-12</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>1.69814459197668e-12</v>
+        <v>1.704166481306303e-12</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>1.819600116563422e-12</v>
+        <v>1.825398932063023e-12</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>1.960289650778988e-12</v>
+        <v>1.965807488995588e-12</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>2.123691614149382e-12</v>
+        <v>2.128900432437572e-12</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>2.313284426200698e-12</v>
+        <v>2.318186042722645e-12</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>2.532546506458772e-12</v>
+        <v>2.537172600184212e-12</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>2.784956274449686e-12</v>
+        <v>2.789368385155927e-12</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>3.073992149699582e-12</v>
+        <v>3.078281677971506e-12</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>3.403132551734206e-12</v>
+        <v>3.407420758964266e-12</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>3.775855900079683e-12</v>
+        <v>3.780293908467903e-12</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>4.195640614262218e-12</v>
+        <v>4.200409406816194e-12</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>4.66509176870325e-12</v>
+        <v>4.670398511665207e-12</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>5.1761162744731e-12</v>
+        <v>5.182149268374258e-12</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>5.713450811339525e-12</v>
+        <v>5.720349297839896e-12</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>6.261699907080201e-12</v>
+        <v>6.269553512489151e-12</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>6.805468089472048e-12</v>
+        <v>6.8143168247483e-12</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>7.329359886292734e-12</v>
+        <v>7.339194147044371e-12</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>7.817979825319686e-12</v>
+        <v>7.828740391804149e-12</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>8.255932434330501e-12</v>
+        <v>8.267510471454588e-12</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>8.627822241102209e-12</v>
+        <v>8.640059298422079e-12</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>8.918253773412441e-12</v>
+        <v>8.930941785133604e-12</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>9.111831559038681e-12</v>
+        <v>9.12471284401601e-12</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>9.193160125758173e-12</v>
+        <v>9.205927387495899e-12</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>9.146844001348451e-12</v>
+        <v>9.159140328000158e-12</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>8.958933446415594e-12</v>
+        <v>8.970358410630681e-12</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>8.636046526174606e-12</v>
+        <v>8.646242964928831e-12</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>8.200107008690111e-12</v>
+        <v>8.208825601218215e-12</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>7.673403082018815e-12</v>
+        <v>7.680503887377993e-12</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>7.078222934217267e-12</v>
+        <v>7.083675391287161e-12</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>6.436854753342838e-12</v>
+        <v>6.440737680825551e-12</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>5.771586727452102e-12</v>
+        <v>5.774088323872185e-12</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>5.104707044601883e-12</v>
+        <v>5.106124888306343e-12</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>4.458503892848727e-12</v>
+        <v>4.459244942007024e-12</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>3.855265460250047e-12</v>
+        <v>3.855846052854095e-12</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>3.317279934862375e-12</v>
+        <v>3.318325788726543e-12</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>2.866835504742358e-12</v>
+        <v>2.869081717503466e-12</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>2.526220357947235e-12</v>
+        <v>2.530511407064559e-12</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>2.317722682533611e-12</v>
+        <v>2.325012425288878e-12</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>2.256857648279863e-12</v>
+        <v>2.268100823576914e-12</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>2.264363383108627e-12</v>
+        <v>2.27899736096055e-12</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>2.191237902682505e-12</v>
+        <v>2.206065504785756e-12</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>1.887109700006827e-12</v>
+        <v>1.89627918517026e-12</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>1.334676143183045e-12</v>
+        <v>1.332845502750687e-12</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>8.659169376307956e-13</v>
+        <v>8.565470395524487e-13</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>6.734608000777625e-13</v>
+        <v>6.646332126972935e-13</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>6.288067517480674e-13</v>
+        <v>6.241712603788308e-13</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>5.927780907184911e-13</v>
+        <v>5.913706964963326e-13</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>5.347185923987184e-13</v>
+        <v>5.347038835111819e-13</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>4.626469430613223e-13</v>
+        <v>4.626518142194358e-13</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>3.846292565221219e-13</v>
+        <v>3.837445445178282e-13</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>3.086028900322677e-13</v>
+        <v>3.063769310284285e-13</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>2.399662843368491e-13</v>
+        <v>2.362778717798359e-13</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>1.817936129895486e-13</v>
+        <v>1.767356961259134e-13</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>1.370733278748414e-13</v>
+        <v>1.309487224177502e-13</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>1.087938808772606e-13</v>
+        <v>1.021152690064947e-13</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>9.994372388127463e-14</v>
+        <v>9.343365424322937e-14</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>1.135113087713752e-13</v>
+        <v>1.081021964790602e-13</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>1.524850874320777e-13</v>
+        <v>1.493192140651185e-13</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>2.198535117478402e-13</v>
+        <v>2.202830253524744e-13</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>3.237793468108598e-13</v>
+        <v>3.291186638533776e-13</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>5.325071534613063e-13</v>
+        <v>5.41157961767755e-13</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>9.177973641760851e-13</v>
+        <v>9.246356885215811e-13</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>1.37733058425238e-12</v>
+        <v>1.379830243565229e-12</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>1.757440564556052e-12</v>
+        <v>1.757506981060458e-12</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>2.006586601892742e-12</v>
+        <v>2.007898673811611e-12</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>2.203351951959051e-12</v>
+        <v>2.207974993203742e-12</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>2.434763290132927e-12</v>
+        <v>2.442929252393562e-12</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>2.787839448703322e-12</v>
+        <v>2.797947038786406e-12</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>3.308190808897e-12</v>
+        <v>3.31742498559982e-12</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>3.903360677032978e-12</v>
+        <v>3.909758222764124e-12</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>4.45215155998608e-12</v>
+        <v>4.455031061481135e-12</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>4.833365964631253e-12</v>
+        <v>4.833327812952795e-12</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>4.939008106046585e-12</v>
+        <v>4.937852201212529e-12</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>4.838619663516288e-12</v>
+        <v>4.838238700779588e-12</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>4.728854245564433e-12</v>
+        <v>4.730441338904084e-12</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>4.809127814669713e-12</v>
+        <v>4.813159277129338e-12</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>5.226783269534926e-12</v>
+        <v>5.23319467293531e-12</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>5.905596792364827e-12</v>
+        <v>5.91453884930864e-12</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>6.709358345919822e-12</v>
+        <v>6.721399723987389e-12</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>7.501857159416993e-12</v>
+        <v>7.517984483646421e-12</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>8.146882806290081e-12</v>
+        <v>8.168500656493886e-12</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>8.545618110288976e-12</v>
+        <v>8.57425751892252e-12</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>8.739520263909161e-12</v>
+        <v>8.77574519579234e-12</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>8.802933222736411e-12</v>
+        <v>8.846084203610678e-12</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>8.810200942356272e-12</v>
+        <v>8.858395058884632e-12</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>8.83322505348346e-12</v>
+        <v>8.88342263943562e-12</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>8.905563879444303e-12</v>
+        <v>8.954615456226829e-12</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>9.030311017160623e-12</v>
+        <v>9.075789114517482e-12</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>9.209719633402076e-12</v>
+        <v>9.249941736845351e-12</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>9.446042894938072e-12</v>
+        <v>9.480071445747959e-12</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>9.741533968538249e-12</v>
+        <v>9.769176363763048e-12</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>1.009844602097217e-11</v>
+        <v>1.01202546134283e-11</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>1.051903221900961e-11</v>
+        <v>1.05363043172816e-11</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>1.100549126679148e-11</v>
+        <v>1.102026622948799e-11</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>1.155292784140943e-11</v>
+        <v>1.156760858962136e-11</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>1.21423891789992e-11</v>
+        <v>1.215899218981732e-11</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>1.275326766047785e-11</v>
+        <v>1.277333467552181e-11</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>1.336495566676322e-11</v>
+        <v>1.338955369218154e-11</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>1.395684557877293e-11</v>
+        <v>1.3986566885243e-11</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>1.45083297774248e-11</v>
+        <v>1.454329190015289e-11</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>1.499880064363593e-11</v>
+        <v>1.503864638235718e-11</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>1.540765055832418e-11</v>
+        <v>1.545154797730258e-11</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>1.571430261332846e-11</v>
+        <v>1.576094597795799e-11</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>1.590453044211038e-11</v>
+        <v>1.59523338934764e-11</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>1.597819871174432e-11</v>
+        <v>1.602572600552087e-11</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>1.593706668917243e-11</v>
+        <v>1.598308897585905e-11</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>1.578289364133677e-11</v>
+        <v>1.582638946625847e-11</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>1.551743883517965e-11</v>
+        <v>1.555759413848693e-11</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>1.514246153764318e-11</v>
+        <v>1.517866965431199e-11</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>1.465972101566929e-11</v>
+        <v>1.469158267550106e-11</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>1.407097653620058e-11</v>
+        <v>1.409829986382222e-11</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>1.337878874744089e-11</v>
+        <v>1.340158394138831e-11</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>1.259790657547537e-11</v>
+        <v>1.261630498190813e-11</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>1.175256341910705e-11</v>
+        <v>1.176675455792865e-11</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>1.086724261069231e-11</v>
+        <v>1.087747251607097e-11</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>9.966427482586368e-12</v>
+        <v>9.972998702955023e-12</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>9.074601367144435e-12</v>
+        <v>9.077872965200721e-12</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>8.216247596722923e-12</v>
+        <v>8.216635149429193e-12</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>7.415849503677028e-12</v>
+        <v>7.413825102260343e-12</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>6.697890420362346e-12</v>
+        <v>6.693982670314484e-12</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>6.080713870131781e-12</v>
+        <v>6.075491755565768e-12</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>5.557342408393536e-12</v>
+        <v>5.551348747610348e-12</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>5.114272046099679e-12</v>
+        <v>5.10800633958981e-12</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>4.737998787521322e-12</v>
+        <v>4.731917217947225e-12</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>4.415018636929434e-12</v>
+        <v>4.409534069125526e-12</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>4.131827598595411e-12</v>
+        <v>4.127309579568071e-12</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>3.874921676790207e-12</v>
+        <v>3.871696435717775e-12</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>3.630796875784822e-12</v>
+        <v>3.629147324017598e-12</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>3.385993899300293e-12</v>
+        <v>3.386159492649276e-12</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>3.135436935579676e-12</v>
+        <v>3.137587846252529e-12</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>2.892244692446544e-12</v>
+        <v>2.896425754883529e-12</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>2.671920545109317e-12</v>
+        <v>2.678043909236042e-12</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>2.48996786877608e-12</v>
+        <v>2.497813000003501e-12</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>2.361890038655029e-12</v>
+        <v>2.371103717879445e-12</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>2.303190429954353e-12</v>
+        <v>2.31328675355741e-12</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>2.329372417882307e-12</v>
+        <v>2.339732797730996e-12</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>2.455939377647042e-12</v>
+        <v>2.465812541093702e-12</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>2.698085304496112e-12</v>
+        <v>2.706589675467245e-12</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>3.053673171371474e-12</v>
+        <v>3.059930255553325e-12</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>3.494388169623298e-12</v>
+        <v>3.497724027184803e-12</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>3.989741872837123e-12</v>
+        <v>3.989703847299323e-12</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>4.509245854598587e-12</v>
+        <v>4.505602572834627e-12</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>5.022411688492613e-12</v>
+        <v>5.015153060727746e-12</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>5.498750948104835e-12</v>
+        <v>5.488088167916417e-12</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>5.907775207020819e-12</v>
+        <v>5.894140751338311e-12</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>6.218996038825587e-12</v>
+        <v>6.203043667930561e-12</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>6.407787175803787e-12</v>
+        <v>6.390350293862983e-12</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>6.480202537360105e-12</v>
+        <v>6.462076268158537e-12</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>6.452299190553713e-12</v>
+        <v>6.434169324192058e-12</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>6.340139707509398e-12</v>
+        <v>6.322582661300993e-12</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>6.159786660351929e-12</v>
+        <v>6.143269478822779e-12</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>5.927302621206065e-12</v>
+        <v>5.912182976094838e-12</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>5.658750162196434e-12</v>
+        <v>5.645276352454463e-12</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>5.370191855448046e-12</v>
+        <v>5.358502807239325e-12</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>5.077690043300106e-12</v>
+        <v>5.067815311520965e-12</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>4.794227167072124e-12</v>
+        <v>4.786107304063983e-12</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>4.521984688445345e-12</v>
+        <v>4.51554267552784e-12</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>4.260777682242852e-12</v>
+        <v>4.255934579649948e-12</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>4.010421223287857e-12</v>
+        <v>4.007096170167843e-12</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>3.770730386403472e-12</v>
+        <v>3.768840600818962e-12</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>3.541520246413121e-12</v>
+        <v>3.540981025341056e-12</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>3.322605878139907e-12</v>
+        <v>3.323330597471555e-12</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>3.113802356407045e-12</v>
+        <v>3.115702470947998e-12</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>2.91492475603766e-12</v>
+        <v>2.917909799507836e-12</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>2.725788151855143e-12</v>
+        <v>2.729765736888785e-12</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>2.546207618682615e-12</v>
+        <v>2.551083436828293e-12</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>2.375998231343214e-12</v>
+        <v>2.381676053063825e-12</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>2.214975064660308e-12</v>
+        <v>2.221356739333073e-12</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>2.062953193457031e-12</v>
+        <v>2.069938649373495e-12</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>1.919747692556532e-12</v>
+        <v>1.92723493692257e-12</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>1.785173636782153e-12</v>
+        <v>1.793058755717963e-12</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>1.659046100957041e-12</v>
+        <v>1.667223259497147e-12</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>1.541167942414073e-12</v>
+        <v>1.549530209438198e-12</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>1.431260402779458e-12</v>
+        <v>1.43970526174461e-12</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>1.329011283336844e-12</v>
+        <v>1.337442890185475e-12</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>1.234108284342096e-12</v>
+        <v>1.242437474323532e-12</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>1.146239106051129e-12</v>
+        <v>1.154383393721576e-12</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>1.065091448719825e-12</v>
+        <v>1.072975027942363e-12</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>9.903530126041715e-13</v>
+        <v>9.979067565487597e-13</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>9.217114979600464e-13</v>
+        <v>9.2887295910352e-13</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>8.588546050433383e-13</v>
+        <v>8.655680151694098e-13</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>8.014700341100198e-13</v>
+        <v>8.076863043092781e-13</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>7.49245485415977e-13</v>
+        <v>7.549222060858881e-13</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>7.018686592171051e-13</v>
+        <v>7.069701000620118e-13</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>6.590272557693625e-13</v>
+        <v>6.635243658004851e-13</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>6.204089753286428e-13</v>
+        <v>6.242793828640778e-13</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>5.857015181508466e-13</v>
+        <v>5.889295308155673e-13</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>5.545925844919342e-13</v>
+        <v>5.571691892177921e-13</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>5.26769874607765e-13</v>
+        <v>5.286927376334868e-13</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>5.019210887542841e-13</v>
+        <v>5.031945556254741e-13</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>4.797339271874257e-13</v>
+        <v>4.803690227565659e-13</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>4.598960901630649e-13</v>
+        <v>4.59910518589513e-13</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>4.42095277937154e-13</v>
+        <v>4.415134226871457e-13</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>4.260191907655761e-13</v>
+        <v>4.24872114612223e-13</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>4.113555289042636e-13</v>
+        <v>4.096809739275545e-13</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>3.977919926091435e-13</v>
+        <v>3.956343801959447e-13</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>3.85016282136107e-13</v>
+        <v>3.824267129801609e-13</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>3.727160977410822e-13</v>
+        <v>3.697523518430085e-13</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>3.605956291280931e-13</v>
+        <v>3.573216133425665e-13</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>3.485513219158541e-13</v>
+        <v>3.450306287219112e-13</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>3.366039271242798e-13</v>
+        <v>3.328956699698816e-13</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>3.247762796638528e-13</v>
+        <v>3.209350231484339e-13</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>3.130912144450233e-13</v>
+        <v>3.09166974319492e-13</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>3.015715663782745e-13</v>
+        <v>2.976098095450121e-13</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>2.902401703740883e-13</v>
+        <v>2.8628181488695e-13</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>2.791198613429161e-13</v>
+        <v>2.752012764072305e-13</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>2.682334741952402e-13</v>
+        <v>2.643864801678097e-13</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>2.576038438415421e-13</v>
+        <v>2.538557122306422e-13</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>2.472538051922744e-13</v>
+        <v>2.436272586576547e-13</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>2.372061931579279e-13</v>
+        <v>2.337194055108108e-13</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>2.274838426489562e-13</v>
+        <v>2.241504388520383e-13</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>2.181095885758407e-13</v>
+        <v>2.149386447432918e-13</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>2.091062658490611e-13</v>
+        <v>2.061023092465246e-13</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>2.00496709379073e-13</v>
+        <v>1.97659718423666e-13</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>1.92303754076357e-13</v>
+        <v>1.896291583366699e-13</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>1.845497002133206e-13</v>
+        <v>1.820284580645096e-13</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>1.77241400729511e-13</v>
+        <v>1.748622430469696e-13</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>1.703682771217727e-13</v>
+        <v>1.681202391627272e-13</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>1.639188176095796e-13</v>
+        <v>1.617913745697287e-13</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>1.578815104123882e-13</v>
+        <v>1.55864577425903e-13</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>1.522448437496775e-13</v>
+        <v>1.503287758892014e-13</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>1.469973058409059e-13</v>
+        <v>1.451728981175546e-13</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>1.421273849055465e-13</v>
+        <v>1.403858722689081e-13</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>1.376235691630716e-13</v>
+        <v>1.359566265012065e-13</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>1.334743468329414e-13</v>
+        <v>1.318740889723822e-13</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>1.296682061346281e-13</v>
+        <v>1.2812718784038e-13</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>1.261936352876031e-13</v>
+        <v>1.247048512631434e-13</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>1.230391225113281e-13</v>
+        <v>1.215960073986067e-13</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>1.201931560252749e-13</v>
+        <v>1.187895844047138e-13</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>1.176442240489137e-13</v>
+        <v>1.162745104394073e-13</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>1.153808148017081e-13</v>
+        <v>1.140397136606232e-13</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>1.133914165031289e-13</v>
+        <v>1.120741222263045e-13</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>1.116645173726455e-13</v>
+        <v>1.103666642943931e-13</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>1.101886056297233e-13</v>
+        <v>1.089062680228266e-13</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>1.08952169493833e-13</v>
+        <v>1.076818615695481e-13</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>1.079436971844406e-13</v>
+        <v>1.066823730924961e-13</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>1.071516769210156e-13</v>
+        <v>1.058967307496122e-13</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>1.065645969230267e-13</v>
+        <v>1.053138626988374e-13</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>1.061709454099409e-13</v>
+        <v>1.049226970981112e-13</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>1.059592106012271e-13</v>
+        <v>1.047121621053749e-13</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>1.059178807163535e-13</v>
+        <v>1.046711858785688e-13</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>1.060354439747883e-13</v>
+        <v>1.047886965756335e-13</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>1.063003885959998e-13</v>
+        <v>1.050536223545097e-13</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>1.067012027994556e-13</v>
+        <v>1.054548913731375e-13</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>1.072263748046249e-13</v>
+        <v>1.059814317894582e-13</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>1.078643928309755e-13</v>
+        <v>1.066221717614119e-13</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>1.086037450979748e-13</v>
+        <v>1.073660394469386e-13</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>1.094329198250926e-13</v>
+        <v>1.082019630039801e-13</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>1.103404052317955e-13</v>
+        <v>1.091188705904756e-13</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>1.113146895375532e-13</v>
+        <v>1.101056903643671e-13</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>1.123452873431479e-13</v>
+        <v>1.111523615508027e-13</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>1.134373941484944e-13</v>
+        <v>1.122642703074532e-13</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>1.146084441026242e-13</v>
+        <v>1.134588588345335e-13</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>1.158761960019399e-13</v>
+        <v>1.147538891357336e-13</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>1.172584086428433e-13</v>
+        <v>1.161671232147427e-13</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>1.187728408217405e-13</v>
+        <v>1.177163230752543e-13</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>1.204372513350335e-13</v>
+        <v>1.194192507209579e-13</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>1.222693989791241e-13</v>
+        <v>1.212936681555423e-13</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>1.24287042550419e-13</v>
+        <v>1.233573373827019e-13</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>1.265079408453179e-13</v>
+        <v>1.256280204061235e-13</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>1.289498526602281e-13</v>
+        <v>1.281234792295021e-13</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>1.31630536791551e-13</v>
+        <v>1.308614758565263e-13</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>1.345677520356875e-13</v>
+        <v>1.338597722908843e-13</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>1.37779257189046e-13</v>
+        <v>1.371361305362721e-13</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>1.412828110480275e-13</v>
+        <v>1.407083125963779e-13</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>1.450961724090317e-13</v>
+        <v>1.445940804748889e-13</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>1.49237100068469e-13</v>
+        <v>1.488111961755027e-13</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>1.537233528227393e-13</v>
+        <v>1.533774217019068e-13</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>1.585726894682416e-13</v>
+        <v>1.583105190577873e-13</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>1.63802868801388e-13</v>
+        <v>1.636282502468439e-13</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>1.694316496185777e-13</v>
+        <v>1.693483772727631e-13</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>1.754767907162083e-13</v>
+        <v>1.754886621392299e-13</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>1.819632387981301e-13</v>
+        <v>1.820739880801053e-13</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>1.889932399885444e-13</v>
+        <v>1.892058206960109e-13</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>1.967160909547114e-13</v>
+        <v>1.970322396750791e-13</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>2.052817550498348e-13</v>
+        <v>2.057019852069998e-13</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>2.148401956270896e-13</v>
+        <v>2.15363797481433e-13</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>2.255413760396829e-13</v>
+        <v>2.261664166880719e-13</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>2.375352596407973e-13</v>
+        <v>2.382585830165843e-13</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>2.509718097836099e-13</v>
+        <v>2.51789036656633e-13</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>2.660009898213355e-13</v>
+        <v>2.669065177979182e-13</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>2.827727631071527e-13</v>
+        <v>2.837597666301045e-13</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>3.014370929942343e-13</v>
+        <v>3.024975233428497e-13</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>3.221439428358042e-13</v>
+        <v>3.232685281258638e-13</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>3.450432759850367e-13</v>
+        <v>3.462215211688063e-13</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>3.702689822686546e-13</v>
+        <v>3.714890914969564e-13</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>3.978444654853635e-13</v>
+        <v>3.990928084408364e-13</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>4.277466829032458e-13</v>
+        <v>4.290075704555223e-13</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>4.599524310594846e-13</v>
+        <v>4.612081144888311e-13</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>4.944385064911825e-13</v>
+        <v>4.956691774885002e-13</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>5.311817057354344e-13</v>
+        <v>5.323654964022589e-13</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>5.701588253294351e-13</v>
+        <v>5.712718081779366e-13</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>6.113466618102814e-13</v>
+        <v>6.123628497632642e-13</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>6.547220117150622e-13</v>
+        <v>6.556133581059652e-13</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>7.001338608931941e-13</v>
+        <v>7.008713127296532e-13</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>7.468475188624226e-13</v>
+        <v>7.474058267918766e-13</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>7.939617733470497e-13</v>
+        <v>7.943208639311597e-13</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>8.405753995056842e-13</v>
+        <v>8.407203753238856e-13</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>8.857871724967667e-13</v>
+        <v>8.857083121462705e-13</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>9.286958674789026e-13</v>
+        <v>9.283886255746945e-13</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>9.684002596105736e-13</v>
+        <v>9.678652667854136e-13</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>1.003999124050273e-12</v>
+        <v>1.003242186954696e-12</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>1.034591235956588e-12</v>
+        <v>1.033623337258905e-12</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>1.059275370488009e-12</v>
+        <v>1.058112668874304e-12</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>1.077150302803046e-12</v>
+        <v>1.075814132977178e-12</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>1.087314808060254e-12</v>
+        <v>1.085831680743859e-12</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>1.088867661418137e-12</v>
+        <v>1.087269263350624e-12</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>1.080907638035232e-12</v>
+        <v>1.079230831973784e-12</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>1.062533513070045e-12</v>
+        <v>1.060820337789622e-12</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>1.032844061681105e-12</v>
+        <v>1.031141731974441e-12</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>9.909380590269771e-13</v>
+        <v>9.892989657045799e-13</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>9.362388366302093e-13</v>
+        <v>9.347189493941991e-13</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>8.703455755708492e-13</v>
+        <v>8.68993735764563e-13</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>7.957518365220549e-13</v>
+        <v>7.946053559313447e-13</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>7.149539296607216e-13</v>
+        <v>7.140385769837793e-13</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>6.304481651640239e-13</v>
+        <v>6.297781660113795e-13</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>5.447308532088394e-13</v>
+        <v>5.44308890103363e-13</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>4.60298303972276e-13</v>
+        <v>4.601155163491758e-13</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>3.796468276314362e-13</v>
+        <v>3.796828118382601e-13</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>3.052727343632056e-13</v>
+        <v>3.054955436598406e-13</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>2.396723343446914e-13</v>
+        <v>2.400384789033635e-13</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>1.853399864591113e-13</v>
+        <v>1.857944433834034e-13</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>1.436892409961782e-13</v>
+        <v>1.441710037879904e-13</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>1.132599136367852e-13</v>
+        <v>1.137167475335513e-13</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>9.211948376192263e-14</v>
+        <v>9.25103509714828e-14</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>7.833543075252935e-14</v>
+        <v>7.863049045312899e-14</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>6.99752339896092e-14</v>
+        <v>7.015584232989967e-14</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>6.510637285412381e-14</v>
+        <v>6.516508295316197e-14</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>6.180271128422317e-14</v>
+        <v>6.174323474461177e-14</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>5.877239804663531e-14</v>
+        <v>5.860578141113799e-14</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>5.588732711897235e-14</v>
+        <v>5.562493667780727e-14</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>5.314405734377057e-14</v>
+        <v>5.27968276401745e-14</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>5.053914756356577e-14</v>
+        <v>5.011758139379414e-14</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>4.806915662088676e-14</v>
+        <v>4.758332503421341e-14</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>4.573064335826943e-14</v>
+        <v>4.51901856569869e-14</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>4.352016661824925e-14</v>
+        <v>4.293429035766864e-14</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>4.143428524335572e-14</v>
+        <v>4.081176623180662e-14</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>3.946955807612439e-14</v>
+        <v>3.881874037495501e-14</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>3.762254395909037e-14</v>
+        <v>3.695133988266752e-14</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>3.588980173478386e-14</v>
+        <v>3.520569185049285e-14</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>3.426789024574005e-14</v>
+        <v>3.35779233739848e-14</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>3.275336833449376e-14</v>
+        <v>3.206416154869678e-14</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>3.134279484357578e-14</v>
+        <v>3.06605334701781e-14</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>3.003272861552216e-14</v>
+        <v>2.93631662339834e-14</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>2.881972849286403e-14</v>
+        <v>2.81681869356624e-14</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>2.770035331813613e-14</v>
+        <v>2.707172267076839e-14</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>2.667116193387284e-14</v>
+        <v>2.60699005348543e-14</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>2.572871318260582e-14</v>
+        <v>2.51588476234704e-14</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>2.486956590686952e-14</v>
+        <v>2.433469103216969e-14</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>2.409027894919811e-14</v>
+        <v>2.35935578565049e-14</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>2.338741115212372e-14</v>
+        <v>2.293157519202675e-14</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>2.275752135818056e-14</v>
+        <v>2.234487013428802e-14</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>2.219716840990262e-14</v>
+        <v>2.182956977884121e-14</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>2.170291114982238e-14</v>
+        <v>2.138180122123746e-14</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>2.127130842047424e-14</v>
+        <v>2.099769155702967e-14</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>2.089891906439095e-14</v>
+        <v>2.067336788176921e-14</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>2.05823019241064e-14</v>
+        <v>2.040495729100853e-14</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>2.031801584215433e-14</v>
+        <v>2.018858688029986e-14</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>2.010261966106775e-14</v>
+        <v>2.00203837451949e-14</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>1.993267222338043e-14</v>
+        <v>1.989647498124594e-14</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>1.980473237162597e-14</v>
+        <v>1.981298768400509e-14</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>1.971535894833764e-14</v>
+        <v>1.976604894902429e-14</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>1.966111079604908e-14</v>
+        <v>1.97517858718557e-14</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>1.96385467572938e-14</v>
+        <v>1.976632554805136e-14</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>1.964422567460524e-14</v>
+        <v>1.980579507316336e-14</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>1.967470639051693e-14</v>
+        <v>1.986632154274373e-14</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>1.972654774756241e-14</v>
+        <v>1.994403205234464e-14</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>1.979630858827518e-14</v>
+        <v>2.003505369751812e-14</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>1.988054887479781e-14</v>
+        <v>2.013551486168548e-14</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>1.997699978830046e-14</v>
+        <v>2.024289116364649e-14</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>2.008678114283942e-14</v>
+        <v>2.035855611491028e-14</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>2.021162203568678e-14</v>
+        <v>2.048458407617353e-14</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>2.035325156411501e-14</v>
+        <v>2.062304940813324e-14</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>2.051339882539622e-14</v>
+        <v>2.07760264714861e-14</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>2.069379291680246e-14</v>
+        <v>2.094558962692871e-14</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>2.089616293560629e-14</v>
+        <v>2.113381323515819e-14</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>2.112223797907978e-14</v>
+        <v>2.134277165687115e-14</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>2.137374714449492e-14</v>
+        <v>2.157453925276418e-14</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>2.165241952912438e-14</v>
+        <v>2.183119038353446e-14</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>2.195998423024017e-14</v>
+        <v>2.211479940987858e-14</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>2.229817034511422e-14</v>
+        <v>2.242744069249305e-14</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>2.266870697101934e-14</v>
+        <v>2.277118859207518e-14</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>2.307332320522711e-14</v>
+        <v>2.314811746932117e-14</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>2.351374814501046e-14</v>
+        <v>2.356030168492845e-14</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>2.399171088764127e-14</v>
+        <v>2.400981559959349e-14</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>2.450894053039131e-14</v>
+        <v>2.449873357401263e-14</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>2.506716617053369e-14</v>
+        <v>2.502912996888352e-14</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>2.566811690534025e-14</v>
+        <v>2.560307914490252e-14</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>2.631352183208254e-14</v>
+        <v>2.622265546276583e-14</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>2.700511004803401e-14</v>
+        <v>2.688993328317137e-14</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>2.77446106504663e-14</v>
+        <v>2.760698696681537e-14</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>2.853375273665091e-14</v>
+        <v>2.837589087439391e-14</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>2.937426540386147e-14</v>
+        <v>2.919871936660514e-14</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>3.026787774936871e-14</v>
+        <v>3.007754680414437e-14</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>3.121631887044648e-14</v>
+        <v>3.101444754770998e-14</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>3.222131786436617e-14</v>
+        <v>3.201149595799796e-14</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>3.328460382839908e-14</v>
+        <v>3.307076639570413e-14</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>3.44079058598193e-14</v>
+        <v>3.419433322152716e-14</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>3.559295305589817e-14</v>
+        <v>3.538427079616294e-14</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>3.684147451390673e-14</v>
+        <v>3.664265348030708e-14</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>3.815519933111948e-14</v>
+        <v>3.797155563465862e-14</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>3.953585660480754e-14</v>
+        <v>3.937305161991324e-14</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>4.098517543224179e-14</v>
+        <v>4.084921579676636e-14</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>4.250488491069708e-14</v>
+        <v>4.240212252591743e-14</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>4.409671413744289e-14</v>
+        <v>4.403384616806043e-14</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>4.576239220975431e-14</v>
+        <v>4.574646108389511e-14</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>4.750364806801461e-14</v>
+        <v>4.754204146400088e-14</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>4.931770785809474e-14</v>
+        <v>4.941777904095917e-14</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>5.118551940868266e-14</v>
+        <v>5.135321468637931e-14</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>5.308435322622861e-14</v>
+        <v>5.332390188774224e-14</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>5.499147981717599e-14</v>
+        <v>5.530539413252181e-14</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>5.688416968797509e-14</v>
+        <v>5.727324490819906e-14</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>5.873969334507098e-14</v>
+        <v>5.920300770224957e-14</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>6.053532129490894e-14</v>
+        <v>6.107023600214909e-14</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>6.224832404393901e-14</v>
+        <v>6.285048329537841e-14</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>6.385597209860634e-14</v>
+        <v>6.451930306941323e-14</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>6.533553596535652e-14</v>
+        <v>6.605224881172963e-14</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>6.666428615063901e-14</v>
+        <v>6.742487400980777e-14</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>6.781949316089923e-14</v>
+        <v>6.86127321511236e-14</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>6.877842750258328e-14</v>
+        <v>6.95913767231538e-14</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>6.951835968213964e-14</v>
+        <v>7.033636121337747e-14</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>7.001656020601392e-14</v>
+        <v>7.082323910927078e-14</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>7.025029958065377e-14</v>
+        <v>7.102756389831199e-14</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>7.019684831250549e-14</v>
+        <v>7.092488906797792e-14</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>6.983561198765843e-14</v>
+        <v>7.049309065424893e-14</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>6.91834809734371e-14</v>
+        <v>6.975082079382014e-14</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>6.828932503353389e-14</v>
+        <v>6.875151894357731e-14</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>6.720303921811785e-14</v>
+        <v>6.754973987129382e-14</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>6.59745185773549e-14</v>
+        <v>6.620003834473973e-14</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>6.46536581614139e-14</v>
+        <v>6.475696913168813e-14</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>6.329035302046398e-14</v>
+        <v>6.327508699991264e-14</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>6.193449820467064e-14</v>
+        <v>6.18089467171827e-14</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>6.063598876420414e-14</v>
+        <v>6.041310305127309e-14</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>5.944471974923002e-14</v>
+        <v>5.914211076995341e-14</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>5.841058620991749e-14</v>
+        <v>5.805052464099719e-14</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>5.758348319643508e-14</v>
+        <v>5.719289943217725e-14</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>5.70133057589492e-14</v>
+        <v>5.662378991126422e-14</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>5.674994894762867e-14</v>
+        <v>5.639775084603119e-14</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>5.684307384266411e-14</v>
+        <v>5.656908626093954e-14</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>5.730217795759141e-14</v>
+        <v>5.714905728327656e-14</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>5.805139179256816e-14</v>
+        <v>5.805743805635471e-14</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>5.900392537398207e-14</v>
+        <v>5.920229935974836e-14</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>6.007298872822345e-14</v>
+        <v>6.049171197303517e-14</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>6.117179188167914e-14</v>
+        <v>6.183374667578846e-14</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>6.221354486073977e-14</v>
+        <v>6.313647424758623e-14</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>6.31114576917929e-14</v>
+        <v>6.430796546800279e-14</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>6.377874040122711e-14</v>
+        <v>6.525629111661359e-14</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>6.413148428068265e-14</v>
+        <v>6.589213667115629e-14</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>6.417649250153015e-14</v>
+        <v>6.620850706437265e-14</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>6.402738196701365e-14</v>
+        <v>6.62953388351043e-14</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>6.380389819303199e-14</v>
+        <v>6.624813013171133e-14</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>6.362578669548447e-14</v>
+        <v>6.616237910255361e-14</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>6.361279299027023e-14</v>
+        <v>6.613358389599114e-14</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>6.38846625932884e-14</v>
+        <v>6.625724266038388e-14</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>6.454898934536208e-14</v>
+        <v>6.662063477749536e-14</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>6.550801322303959e-14</v>
+        <v>6.717214886138994e-14</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>6.649292213655009e-14</v>
+        <v>6.774448272629444e-14</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>6.722968459743723e-14</v>
+        <v>6.816680405422772e-14</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>6.744426911724562e-14</v>
+        <v>6.826828052720921e-14</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>6.693763438178711e-14</v>
+        <v>6.79212814982221e-14</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>6.584627628010009e-14</v>
+        <v>6.719147854939583e-14</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>6.440049931548326e-14</v>
+        <v>6.619858619483621e-14</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>6.283061236401707e-14</v>
+        <v>6.506232146779909e-14</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>6.133008540546681e-14</v>
+        <v>6.388415236688863e-14</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>5.992815860976142e-14</v>
+        <v>6.268419169849623e-14</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>5.860832398507169e-14</v>
+        <v>6.145988981512213e-14</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>5.735407160232367e-14</v>
+        <v>6.020869610960596e-14</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>5.614889153244e-14</v>
+        <v>5.892805997478389e-14</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>5.497627384634675e-14</v>
+        <v>5.761543080349554e-14</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>5.381970861496985e-14</v>
+        <v>5.626825798858053e-14</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>5.266268590923219e-14</v>
+        <v>5.488399092287497e-14</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>5.148869580006077e-14</v>
+        <v>5.346007899921978e-14</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>5.028122835837837e-14</v>
+        <v>5.199397161045086e-14</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>4.902377365511101e-14</v>
+        <v>5.048311814940797e-14</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>4.769982176118354e-14</v>
+        <v>4.892496800892954e-14</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>4.629286274752221e-14</v>
+        <v>4.73169705818555e-14</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>4.478732695941359e-14</v>
+        <v>4.565709327988246e-14</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>4.319035057722599e-14</v>
+        <v>4.395581268360342e-14</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>4.15323920555335e-14</v>
+        <v>4.223645415305073e-14</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>3.984497343883811e-14</v>
+        <v>4.05229290045118e-14</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>3.815961677164191e-14</v>
+        <v>3.883914855427397e-14</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>3.65078440984424e-14</v>
+        <v>3.720902411862007e-14</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>3.492117746374173e-14</v>
+        <v>3.565646701383751e-14</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>3.343113891204174e-14</v>
+        <v>3.420538855621342e-14</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>3.206925048784032e-14</v>
+        <v>3.287970006203103e-14</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>3.086703423563944e-14</v>
+        <v>3.170331284757757e-14</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>2.98560121999405e-14</v>
+        <v>3.070013822913976e-14</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>2.906770642524226e-14</v>
+        <v>2.98940875230016e-14</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>2.853363895604664e-14</v>
+        <v>2.930907204545042e-14</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>2.828183269232976e-14</v>
+        <v>2.896848994416429e-14</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>2.832048796548053e-14</v>
+        <v>2.88928322791519e-14</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>2.865083294794994e-14</v>
+        <v>2.910156760533057e-14</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>2.927408810658627e-14</v>
+        <v>2.961416334754954e-14</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>3.019147390823705e-14</v>
+        <v>3.045008693065763e-14</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>3.140421081974874e-14</v>
+        <v>3.16288057795025e-14</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>3.291351930797122e-14</v>
+        <v>3.316978731893516e-14</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>3.472061983975123e-14</v>
+        <v>3.509249897380358e-14</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>3.682673476587855e-14</v>
+        <v>3.741641000231384e-14</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>3.957317622092552e-14</v>
+        <v>4.049194790031131e-14</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>4.459008243658574e-14</v>
+        <v>4.592376076674571e-14</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>5.37911874610093e-14</v>
+        <v>5.559180559360202e-14</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>6.769042472019676e-14</v>
+        <v>6.997037505110389e-14</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>8.457231263800317e-14</v>
+        <v>8.729500789171997e-14</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>1.02522437680194e-13</v>
+        <v>1.056014775931231e-13</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>1.196263863124884e-13</v>
+        <v>1.229255576329386e-13</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>1.339697450006089e-13</v>
+        <v>1.373030214887958e-13</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>1.436615827240863e-13</v>
+        <v>1.467942972719801e-13</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>1.483082055805138e-13</v>
+        <v>1.510317841760495e-13</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>1.498888776443695e-13</v>
+        <v>1.521392845758646e-13</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>1.505932186208607e-13</v>
+        <v>1.524614562902957e-13</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>1.526108482151882e-13</v>
+        <v>1.543429571382073e-13</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>1.579055082624159e-13</v>
+        <v>1.598824190581308e-13</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>1.662479657117035e-13</v>
+        <v>1.687898886149004e-13</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>1.761758077047304e-13</v>
+        <v>1.794322345420764e-13</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>1.862128787401968e-13</v>
+        <v>1.901613571044842e-13</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>1.948830233168309e-13</v>
+        <v>1.99329156566979e-13</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>2.008041088916508e-13</v>
+        <v>2.053962118023171e-13</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>2.036516672592847e-13</v>
+        <v>2.080456274357407e-13</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>2.037671742060228e-13</v>
+        <v>2.077302548359277e-13</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>2.015024896526648e-13</v>
+        <v>2.049149481132614e-13</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>1.972094735200035e-13</v>
+        <v>2.000645613781163e-13</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>1.912394601510438e-13</v>
+        <v>1.936421759082835e-13</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>1.839196793401913e-13</v>
+        <v>1.860295656472434e-13</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>1.755437404773652e-13</v>
+        <v>1.774950991596395e-13</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>1.664027579067628e-13</v>
+        <v>1.682987289422162e-13</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>1.56787845972584e-13</v>
+        <v>1.587004074917198e-13</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>1.469901190190026e-13</v>
+        <v>1.489600873048708e-13</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>1.373006913902268e-13</v>
+        <v>1.393377208784239e-13</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>1.28007025752493e-13</v>
+        <v>1.300900444336119e-13</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>1.192690931510092e-13</v>
+        <v>1.213615038466107e-13</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>1.110891634423632e-13</v>
+        <v>1.131576470743169e-13</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>1.034597271146016e-13</v>
+        <v>1.054754087337114e-13</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>9.637327465579281e-14</v>
+        <v>9.831172344179711e-14</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>8.982229655400369e-14</v>
+        <v>9.166352581557535e-14</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>8.379928329728347e-14</v>
+        <v>8.552775047202963e-14</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>7.829672537369938e-14</v>
+        <v>7.990133202816166e-14</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>7.330711327131673e-14</v>
+        <v>7.478120510097127e-14</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>6.88229374781876e-14</v>
+        <v>7.016430430744476e-14</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>6.483668848238113e-14</v>
+        <v>6.604756426458596e-14</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>6.134085677195122e-14</v>
+        <v>6.242791958938291e-14</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>5.832793283496274e-14</v>
+        <v>5.930230489883499e-14</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>5.578873603210966e-14</v>
+        <v>5.666587399550668e-14</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>5.366875471793155e-14</v>
+        <v>5.446547430416917e-14</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>5.186394860624718e-14</v>
+        <v>5.259517371891039e-14</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>5.026776469202393e-14</v>
+        <v>5.094636248872655e-14</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>4.877364997022293e-14</v>
+        <v>4.941043086260735e-14</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>4.727505143580962e-14</v>
+        <v>4.787876908954699e-14</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>4.566541608374946e-14</v>
+        <v>4.624276741853963e-14</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>4.383819090900353e-14</v>
+        <v>4.439381609857503e-14</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>4.168690429241881e-14</v>
+        <v>4.222338735674247e-14</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>3.916979124391472e-14</v>
+        <v>3.96881308943627e-14</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>3.64260562287478e-14</v>
+        <v>3.692698271295439e-14</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>3.362629872659287e-14</v>
+        <v>3.411050227785406e-14</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>3.094111821712494e-14</v>
+        <v>3.14092490543983e-14</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>2.854111418001169e-14</v>
+        <v>2.899378250791646e-14</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>2.659688609492982e-14</v>
+        <v>2.703466210374687e-14</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>2.527903344154838e-14</v>
+        <v>2.57024473072202e-14</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>2.475815569954203e-14</v>
+        <v>2.516769758367274e-14</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>2.520485234858257e-14</v>
+        <v>2.560097239843795e-14</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>2.678972286834335e-14</v>
+        <v>2.717283121685079e-14</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>2.968336673849713e-14</v>
+        <v>3.005383350424565e-14</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>3.405638343871192e-14</v>
+        <v>3.44145387259522e-14</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>4.007937244866817e-14</v>
+        <v>4.042550634731249e-14</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>4.800478943289624e-14</v>
+        <v>4.834066710634068e-14</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>5.910936335457897e-14</v>
+        <v>5.945718346054828e-14</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>7.536688555526292e-14</v>
+        <v>7.578218227297539e-14</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>9.876450744491037e-14</v>
+        <v>9.933639775849402e-14</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>1.312893804335575e-13</v>
+        <v>1.321405641320505e-13</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>1.749286559311823e-13</v>
+        <v>1.762154156085325e-13</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>2.295303571951757e-13</v>
+        <v>2.314061519495997e-13</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>2.753875235675536e-13</v>
+        <v>2.776701783550125e-13</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>2.823131388850446e-13</v>
+        <v>2.843064821097739e-13</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>2.535158896120911e-13</v>
+        <v>2.54537388365123e-13</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>2.637754759209566e-13</v>
+        <v>2.643577456348979e-13</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>2.991800112390335e-13</v>
+        <v>2.997828307328975e-13</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>3.346914410161943e-13</v>
+        <v>3.355354376104344e-13</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>3.475190259995287e-13</v>
+        <v>3.485972580078898e-13</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>3.385620536726486e-13</v>
+        <v>3.397621069953566e-13</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>3.229216722394502e-13</v>
+        <v>3.240988556715249e-13</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>3.157478862335337e-13</v>
+        <v>3.167272944819729e-13</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>3.21408255210906e-13</v>
+        <v>3.220651435182067e-13</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>3.26680272251593e-13</v>
+        <v>3.270681202238073e-13</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>3.252620182734783e-13</v>
+        <v>3.255082550538656e-13</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>3.181475935872042e-13</v>
+        <v>3.183547716852156e-13</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>3.065596003227035e-13</v>
+        <v>3.068023005070948e-13</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>2.917206406099261e-13</v>
+        <v>2.920454719087575e-13</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>2.748533165788344e-13</v>
+        <v>2.752789162794702e-13</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>2.571802303593434e-13</v>
+        <v>2.576972640084525e-13</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>2.398778423256054e-13</v>
+        <v>2.404505389238567e-13</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>2.234608142199218e-13</v>
+        <v>2.240489851012239e-13</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>2.079486053128129e-13</v>
+        <v>2.085241201581645e-13</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>1.933487332043436e-13</v>
+        <v>1.938959173563459e-13</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>1.796687154945757e-13</v>
+        <v>1.801843499574322e-13</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>1.669160697835341e-13</v>
+        <v>1.67409391223051e-13</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>1.550983136712916e-13</v>
+        <v>1.555910144148775e-13</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>1.442229647578767e-13</v>
+        <v>1.447491927945423e-13</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>1.342976669648509e-13</v>
+        <v>1.349039868126573e-13</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>1.253658822900803e-13</v>
+        <v>1.261001790802287e-13</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>1.175559618390592e-13</v>
+        <v>1.184411439125341e-13</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>1.110085554734422e-13</v>
+        <v>1.120387444063295e-13</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>1.058643130548793e-13</v>
+        <v>1.070048436583665e-13</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>1.022472045653988e-13</v>
+        <v>1.034359405860173e-13</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>1.000008427615247e-13</v>
+        <v>1.011702913135241e-13</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>9.873611057787324e-14</v>
+        <v>9.983177975072798e-14</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>9.805684018134314e-14</v>
+        <v>9.903779520064878e-14</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>9.75668637388371e-14</v>
+        <v>9.840572696631055e-14</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>9.687001341725525e-14</v>
+        <v>9.755296435073433e-14</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>9.557012138349865e-14</v>
+        <v>9.609689665694258e-14</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>9.33157126810158e-14</v>
+        <v>9.3699247615686e-14</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>9.021063382315743e-14</v>
+        <v>9.04734106276925e-14</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>8.662460941873385e-14</v>
+        <v>8.679652477573851e-14</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>8.29306959119278e-14</v>
+        <v>8.304903425576231e-14</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>7.950194974691173e-14</v>
+        <v>7.961138326369175e-14</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>7.670964995638981e-14</v>
+        <v>7.686214920727344e-14</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>7.465209245916251e-14</v>
+        <v>7.489319948944291e-14</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>7.286298171255612e-14</v>
+        <v>7.320341970440542e-14</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>7.083094625756823e-14</v>
+        <v>7.124488092880082e-14</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>6.838969782302027e-14</v>
+        <v>6.883941697502659e-14</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>6.56254176411194e-14</v>
+        <v>6.607938719123739e-14</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>6.263006381485766e-14</v>
+        <v>6.306334094475123e-14</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>5.949559444722988e-14</v>
+        <v>5.988982760288904e-14</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>5.631396764122239e-14</v>
+        <v>5.665739653296305e-14</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>5.317714149983271e-14</v>
+        <v>5.346459710229688e-14</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>5.017654793370126e-14</v>
+        <v>5.040941597810454e-14</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>4.736803837628044e-14</v>
+        <v>4.755179074124336e-14</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>4.474987684463849e-14</v>
+        <v>4.489007608352036e-14</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>4.231507731252422e-14</v>
+        <v>4.241701240015603e-14</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>4.005665375369362e-14</v>
+        <v>4.012534008637822e-14</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>3.796762014190204e-14</v>
+        <v>3.800779953741405e-14</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>3.604099045089923e-14</v>
+        <v>3.605713114848505e-14</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>3.426977865444068e-14</v>
+        <v>3.426607531481851e-14</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>3.264699872628134e-14</v>
+        <v>3.262737243164117e-14</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>3.116566464017181e-14</v>
+        <v>3.11337628941754e-14</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>2.981879036986832e-14</v>
+        <v>2.977798709764923e-14</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>2.859938988912195e-14</v>
+        <v>2.855278543728553e-14</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>2.750047717168755e-14</v>
+        <v>2.745089830831092e-14</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>2.651506619131945e-14</v>
+        <v>2.646506610595154e-14</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>2.563617092176944e-14</v>
+        <v>2.558802922543096e-14</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>2.485680533679197e-14</v>
+        <v>2.481252806197542e-14</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>2.416998341014116e-14</v>
+        <v>2.413130301081082e-14</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>2.356871911556932e-14</v>
+        <v>2.353709446716126e-14</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>2.304602642683063e-14</v>
+        <v>2.302264282625272e-14</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>2.259491931767899e-14</v>
+        <v>2.258068848331088e-14</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>2.220841176186715e-14</v>
+        <v>2.220397183356028e-14</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>2.187951773314934e-14</v>
+        <v>2.188523327222692e-14</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>2.16012512052785e-14</v>
+        <v>2.161721319453555e-14</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>2.136662615200849e-14</v>
+        <v>2.139265199571182e-14</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>2.116865654709285e-14</v>
+        <v>2.120429007098103e-14</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>2.100035636428523e-14</v>
+        <v>2.104486781556865e-14</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>2.085473957733888e-14</v>
+        <v>2.090712562469971e-14</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>2.072564888206723e-14</v>
+        <v>2.078467334158123e-14</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>2.061154219825149e-14</v>
+        <v>2.067596283952695e-14</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>2.051247463825569e-14</v>
+        <v>2.058112167533328e-14</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>2.042850285783905e-14</v>
+        <v>2.050027902503901e-14</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>2.035968351276058e-14</v>
+        <v>2.043356406468271e-14</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>2.030607325877951e-14</v>
+        <v>2.038110597030317e-14</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>2.026772875165505e-14</v>
+        <v>2.034303391793914e-14</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>2.024470664714628e-14</v>
+        <v>2.031947708362926e-14</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>2.023706360101239e-14</v>
+        <v>2.03105646434123e-14</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>2.024485626901255e-14</v>
+        <v>2.031642577332695e-14</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>2.026814130690592e-14</v>
+        <v>2.033718964941195e-14</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>2.030697537045163e-14</v>
+        <v>2.037298544770597e-14</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>2.036141511540889e-14</v>
+        <v>2.042394234424779e-14</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>2.043151719753685e-14</v>
+        <v>2.049018951507611e-14</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>2.051733827259458e-14</v>
+        <v>2.057185613622956e-14</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>2.06189349963414e-14</v>
+        <v>2.0669071383747e-14</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>2.07363640245364e-14</v>
+        <v>2.078196443366709e-14</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>2.086968201293859e-14</v>
+        <v>2.091066446202841e-14</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>2.101894561730741e-14</v>
+        <v>2.105530064486992e-14</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>2.118421149340188e-14</v>
+        <v>2.121600215823022e-14</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>2.1365536296981e-14</v>
+        <v>2.139289817814786e-14</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>2.156297668380426e-14</v>
+        <v>2.158611788066189e-14</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>2.177658930963045e-14</v>
+        <v>2.179579044181066e-14</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>2.200643083021913e-14</v>
+        <v>2.202204503763327e-14</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>2.225255790132927e-14</v>
+        <v>2.226501084416825e-14</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>2.251502717871979e-14</v>
+        <v>2.252481703745409e-14</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>2.279389531815031e-14</v>
+        <v>2.280159279352995e-14</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>2.308921897537978e-14</v>
+        <v>2.309546728843435e-14</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>2.340105480616707e-14</v>
+        <v>2.34065696982057e-14</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>2.372945946627188e-14</v>
+        <v>2.373502919888327e-14</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>2.407448961145312e-14</v>
+        <v>2.408097496650552e-14</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>2.443620189746962e-14</v>
+        <v>2.444453617711083e-14</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>2.481465298008118e-14</v>
+        <v>2.482584200673856e-14</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>2.520989951504627e-14</v>
+        <v>2.522502163142674e-14</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>2.562199815812479e-14</v>
+        <v>2.564220422721482e-14</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>2.605278682004358e-14</v>
+        <v>2.60792481228931e-14</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>2.651251994030783e-14</v>
+        <v>2.654618199016169e-14</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>2.701393543389905e-14</v>
+        <v>2.705544533383068e-14</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>2.756977157576071e-14</v>
+        <v>2.761947800814313e-14</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>2.819276664083427e-14</v>
+        <v>2.825071986734014e-14</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>2.889565890406344e-14</v>
+        <v>2.896161076566503e-14</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>2.969118664039019e-14</v>
+        <v>2.97645905573594e-14</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>3.059208812475621e-14</v>
+        <v>3.067209909666452e-14</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>3.161110163210567e-14</v>
+        <v>3.16965762378242e-14</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>3.276096543738034e-14</v>
+        <v>3.285046183507982e-14</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>3.405441781552153e-14</v>
+        <v>3.414619574267229e-14</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>3.550335320477221e-14</v>
+        <v>3.559538575173431e-14</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>3.710459307434405e-14</v>
+        <v>3.719477698922652e-14</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>3.884196134444865e-14</v>
+        <v>3.892829838077279e-14</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>4.069885604031815e-14</v>
+        <v>4.077945889929645e-14</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>4.265867518717834e-14</v>
+        <v>4.273176751771442e-14</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>4.470481681026181e-14</v>
+        <v>4.476873320895039e-14</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>4.682067893479588e-14</v>
+        <v>4.687386494592289e-14</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>4.898965958600767e-14</v>
+        <v>4.903067170155013e-14</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>5.119515678913011e-14</v>
+        <v>5.122266244875619e-14</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>5.342056856939035e-14</v>
+        <v>5.343334616045938e-14</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>5.564929295201544e-14</v>
+        <v>5.56462318095779e-14</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>5.786472796223847e-14</v>
+        <v>5.784482836903592e-14</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>6.005027162528645e-14</v>
+        <v>6.001264481175166e-14</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>6.218932196638661e-14</v>
+        <v>6.213319011064346e-14</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>6.426527701077179e-14</v>
+        <v>6.41899732386353e-14</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>6.627775808770636e-14</v>
+        <v>6.618279976480611e-14</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>6.830123481231812e-14</v>
+        <v>6.818666168667314e-14</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>7.043174797817475e-14</v>
+        <v>7.029821963244307e-14</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>7.276534039234019e-14</v>
+        <v>7.261413625291516e-14</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>7.539805486188464e-14</v>
+        <v>7.523107419889495e-14</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>7.842593419387227e-14</v>
+        <v>7.824569612118198e-14</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>8.194502119536577e-14</v>
+        <v>8.175466467057427e-14</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>8.605135867343752e-14</v>
+        <v>8.585464249787953e-14</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>9.084091742686281e-14</v>
+        <v>9.064221796620287e-14</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>9.638736189530113e-14</v>
+        <v>9.619096697695085e-14</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>1.02710583289312e-13</v>
+        <v>1.025189900234338e-13</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>1.098225328490116e-13</v>
+        <v>1.096361962906109e-13</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>1.177351618145128e-13</v>
+        <v>1.175524949634384e-13</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>1.264604214259509e-13</v>
+        <v>1.262777952268946e-13</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>1.360102629234397e-13</v>
+        <v>1.358220062659365e-13</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>1.463966375470901e-13</v>
+        <v>1.461950372655182e-13</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>1.576314965370416e-13</v>
+        <v>1.574067974106223e-13</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>1.697164925070791e-13</v>
+        <v>1.694572667609861e-13</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>1.825276086873777e-13</v>
+        <v>1.822252648442317e-13</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>1.958568346298066e-13</v>
+        <v>1.955086310919086e-13</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>2.094946229214858e-13</v>
+        <v>2.09103723115082e-13</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>2.232314261495721e-13</v>
+        <v>2.228068985248541e-13</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>2.36857696901186e-13</v>
+        <v>2.364145149322903e-13</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>2.50163887763448e-13</v>
+        <v>2.497229299484567e-13</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>2.629404513235146e-13</v>
+        <v>2.625285011844549e-13</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>2.74977840168506e-13</v>
+        <v>2.746275862513504e-13</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>2.86056914573275e-13</v>
+        <v>2.858061085145975e-13</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>2.958219768182445e-13</v>
+        <v>2.957014474209046e-13</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>3.038156617630471e-13</v>
+        <v>3.038403914760736e-13</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>3.095781810461555e-13</v>
+        <v>3.097470932745569e-13</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>3.126497463060197e-13</v>
+        <v>3.129457054107838e-13</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>3.125705691810994e-13</v>
+        <v>3.12960380479193e-13</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>3.088811071520759e-13</v>
+        <v>3.093155218032465e-13</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>3.015206977130941e-13</v>
+        <v>3.019423415740754e-13</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>2.916386947040739e-13</v>
+        <v>2.920061207826306e-13</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>2.806130360159619e-13</v>
+        <v>2.809052682172632e-13</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>2.698216594370198e-13</v>
+        <v>2.700381925622025e-13</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>2.603639241741084e-13</v>
+        <v>2.605208267842313e-13</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>2.522487580382145e-13</v>
+        <v>2.523634180169757e-13</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>2.452183242976752e-13</v>
+        <v>2.453057169862063e-13</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>2.390147862208001e-13</v>
+        <v>2.390874744176662e-13</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>2.333803070759176e-13</v>
+        <v>2.334484410371174e-13</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>2.280570501313501e-13</v>
+        <v>2.281283675703156e-13</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>2.22787178655424e-13</v>
+        <v>2.228670047430209e-13</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>2.173128559164521e-13</v>
+        <v>2.174041032809795e-13</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>2.113762451827668e-13</v>
+        <v>2.114794139099572e-13</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>2.047640438899178e-13</v>
+        <v>2.048774992804598e-13</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>1.975193819513337e-13</v>
+        <v>1.976409538782667e-13</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>1.897769855672933e-13</v>
+        <v>1.899045397577734e-13</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>1.816716952537607e-13</v>
+        <v>1.818031340020422e-13</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>1.73338351526721e-13</v>
+        <v>1.734716136941569e-13</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>1.649117949021602e-13</v>
+        <v>1.650448559172015e-13</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>1.565268658960414e-13</v>
+        <v>1.566577377542374e-13</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>1.483184050243502e-13</v>
+        <v>1.48445136288349e-13</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>1.404205944647629e-13</v>
+        <v>1.40541271996063e-13</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>1.32903784571273e-13</v>
+        <v>1.330167014391935e-13</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>1.257220685116987e-13</v>
+        <v>1.258260298067381e-13</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>1.188171993342619e-13</v>
+        <v>1.189115546286584e-13</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>1.12130930087204e-13</v>
+        <v>1.122155734349355e-13</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>1.056050138187656e-13</v>
+        <v>1.056803837555498e-13</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>9.918120357716977e-14</v>
+        <v>9.924828312046394e-14</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>9.28012524106572e-14</v>
+        <v>9.286156905965849e-14</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>8.640691336746846e-14</v>
+        <v>8.646253910311368e-14</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>7.994296026209768e-14</v>
+        <v>7.999648087462834e-14</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>7.342579126744153e-14</v>
+        <v>7.347957909276271e-14</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>6.694464224291757e-14</v>
+        <v>6.700011657899372e-14</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>6.059201250128965e-14</v>
+        <v>6.064960647149919e-14</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>5.446040135534469e-14</v>
+        <v>5.451956190847985e-14</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>4.864230811784714e-14</v>
+        <v>4.870149602811411e-14</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>4.32302321015783e-14</v>
+        <v>4.328692196859714e-14</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>3.831667261931795e-14</v>
+        <v>3.836735286812261e-14</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>3.399412898383284e-14</v>
+        <v>3.403430186487112e-14</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>3.03482002615995e-14</v>
+        <v>3.037297292184521e-14</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>2.743468190480845e-14</v>
+        <v>2.74413193481433e-14</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>2.530132456013651e-14</v>
+        <v>2.528993876074218e-14</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>2.399634476690268e-14</v>
+        <v>2.396989249977642e-14</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>2.359803915141965e-14</v>
+        <v>2.356218126794866e-14</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>2.419788523707966e-14</v>
+        <v>2.416030009126087e-14</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>2.566958076809349e-14</v>
+        <v>2.563698467991303e-14</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>2.779934028655804e-14</v>
+        <v>2.777632153518929e-14</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>3.037316679974068e-14</v>
+        <v>3.036218280413391e-14</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>3.317591990190455e-14</v>
+        <v>3.317732904349393e-14</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>3.596604210821382e-14</v>
+        <v>3.597883895341751e-14</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>3.84754928085604e-14</v>
+        <v>3.849804516943393e-14</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>4.043507477055936e-14</v>
+        <v>4.046515589513392e-14</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>4.157559076183344e-14</v>
+        <v>4.1610379334116e-14</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>4.162805286619556e-14</v>
+        <v>4.166413290672316e-14</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>4.054102218926986e-14</v>
+        <v>4.057427969807284e-14</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>3.889200529002376e-14</v>
+        <v>3.891732943609654e-14</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>3.737150406951939e-14</v>
+        <v>3.738273350699492e-14</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>3.663350094716144e-14</v>
+        <v>3.662365971658638e-14</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>3.664679874738435e-14</v>
+        <v>3.661252226241921e-14</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>3.677135106322846e-14</v>
+        <v>3.671681903366588e-14</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>3.634592486909862e-14</v>
+        <v>3.628299815796332e-14</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>3.485879965658881e-14</v>
+        <v>3.480490652581577e-14</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>3.243116877001732e-14</v>
+        <v>3.240035697149659e-14</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>2.935167212602379e-14</v>
+        <v>2.935224160204212e-14</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>2.590895070713124e-14</v>
+        <v>2.594345357530308e-14</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>2.239164549586405e-14</v>
+        <v>2.245688604913145e-14</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>1.908837790516214e-14</v>
+        <v>1.917541309124016e-14</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>1.621760182806197e-14</v>
+        <v>1.631346032016786e-14</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>1.376994626524798e-14</v>
+        <v>1.3863210063166e-14</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>1.168988232357675e-14</v>
+        <v>1.177181760001403e-14</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>9.921881109911612e-15</v>
+        <v>9.986438210498146e-15</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>8.410413731114785e-15</v>
+        <v>8.454227174403473e-15</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>7.099951294044532e-15</v>
+        <v>7.122339771511106e-15</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>5.934966093306513e-15</v>
+        <v>5.937932471178272e-15</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>4.915303145380863e-15</v>
+        <v>4.903616926568089e-15</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>4.165886202645876e-15</v>
+        <v>4.146210902452874e-15</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>3.660646743073194e-15</v>
+        <v>3.638640452315065e-15</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>3.343057337170339e-15</v>
+        <v>3.322915199587928e-15</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>3.156590555444082e-15</v>
+        <v>3.141044767703995e-15</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>3.044718968402176e-15</v>
+        <v>3.035038780096764e-15</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>2.958691242532842e-15</v>
+        <v>2.954881352155509e-15</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>2.886624112769857e-15</v>
+        <v>2.888365303789232e-15</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>2.827549659810827e-15</v>
+        <v>2.834477290117619e-15</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>2.780501639965246e-15</v>
+        <v>2.792205684623103e-15</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>2.744513809542774e-15</v>
+        <v>2.760538860788268e-15</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>2.718619924853031e-15</v>
+        <v>2.73846519209566e-15</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>2.701853742205571e-15</v>
+        <v>2.724973052027772e-15</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>2.693249017910023e-15</v>
+        <v>2.719050814067157e-15</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>2.691839508275987e-15</v>
+        <v>2.719686851696342e-15</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>2.69665896961306e-15</v>
+        <v>2.725869538397861e-15</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>2.706741158230838e-15</v>
+        <v>2.736587247654234e-15</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>2.721120404040551e-15</v>
+        <v>2.750829140899178e-15</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>2.738941261109677e-15</v>
+        <v>2.767735793458312e-15</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>2.759588841720026e-15</v>
+        <v>2.786778233225018e-15</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>2.782479991475678e-15</v>
+        <v>2.807471079860477e-15</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>2.807031555980662e-15</v>
+        <v>2.82932895302582e-15</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>2.832660380838999e-15</v>
+        <v>2.851866472382172e-15</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>2.858783311654779e-15</v>
+        <v>2.874598257590723e-15</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>2.884817194032025e-15</v>
+        <v>2.897038928312597e-15</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>2.910178873574756e-15</v>
+        <v>2.918703104208924e-15</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>2.934285195887065e-15</v>
+        <v>2.93910540494089e-15</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>2.956553006572954e-15</v>
+        <v>2.957760450169605e-15</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>2.976399151236508e-15</v>
+        <v>2.974182859556252e-15</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>2.99324047548175e-15</v>
+        <v>2.987887252761958e-15</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>3.006493824912713e-15</v>
+        <v>2.998388249447863e-15</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>3.015576045133468e-15</v>
+        <v>3.005200469275132e-15</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>3.019903981748043e-15</v>
+        <v>3.007838531904902e-15</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>3.018894480360488e-15</v>
+        <v>3.005817056998323e-15</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>3.011964386574846e-15</v>
+        <v>2.998650664216542e-15</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>2.998530545995158e-15</v>
+        <v>2.9858539732207e-15</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>2.978624328275647e-15</v>
+        <v>2.967511186107338e-15</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>2.955111545366442e-15</v>
+        <v>2.946333657718941e-15</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>2.931674680039513e-15</v>
+        <v>2.925789688627753e-15</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>2.911996290897096e-15</v>
+        <v>2.909347649690641e-15</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>2.899758936541498e-15</v>
+        <v>2.900475911764531e-15</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>2.898645175574998e-15</v>
+        <v>2.902642845706327e-15</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>2.912337566599858e-15</v>
+        <v>2.919316822372912e-15</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>2.944518668218384e-15</v>
+        <v>2.953966212621221e-15</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>2.99887103903279e-15</v>
+        <v>3.010059387308087e-15</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>3.079077237645454e-15</v>
+        <v>3.091064717290517e-15</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>3.188819822658622e-15</v>
+        <v>3.200450573425375e-15</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>3.331781352674427e-15</v>
+        <v>3.341685326569424e-15</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>3.511644386295409e-15</v>
+        <v>3.518237347579821e-15</v>
       </c>
     </row>
   </sheetData>
